--- a/文档/PersonalLibrary_项目问题跟踪表.xlsx
+++ b/文档/PersonalLibrary_项目问题跟踪表.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\寒假华迪实训\PersonalLibrary\PersonalLibrary-Server\文档\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="12795" windowHeight="8220" tabRatio="544" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="12800" windowHeight="8220" tabRatio="544" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="填表说明" sheetId="3" r:id="rId1"/>
@@ -468,7 +473,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="17">
     <font>
       <sz val="12"/>
@@ -478,11 +483,13 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -705,7 +712,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -829,6 +836,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -837,6 +845,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1205,7 +1221,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1237,9 +1253,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1271,6 +1288,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1446,18 +1464,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="6.375" style="21" customWidth="1"/>
-    <col min="2" max="2" width="27.125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="33.125" style="15" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="27.08203125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="33.08203125" style="15" customWidth="1"/>
     <col min="4" max="4" width="12.25" style="15" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="8.5" style="15" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="15"/>
@@ -1484,7 +1502,7 @@
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
     </row>
-    <row r="4" spans="1:6" ht="14.25">
+    <row r="4" spans="1:6" ht="15">
       <c r="A4" s="14" t="s">
         <v>95</v>
       </c>
@@ -1891,21 +1909,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.25" style="31" customWidth="1"/>
-    <col min="2" max="2" width="17.625" style="31" customWidth="1"/>
+    <col min="2" max="2" width="17.58203125" style="31" customWidth="1"/>
     <col min="3" max="3" width="10.25" style="31" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" style="31" customWidth="1"/>
-    <col min="5" max="5" width="49.375" style="31" customWidth="1"/>
-    <col min="6" max="6" width="27.375" style="31" customWidth="1"/>
+    <col min="5" max="5" width="49.33203125" style="31" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" style="31" customWidth="1"/>
     <col min="7" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
@@ -1923,7 +1941,7 @@
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="23.45" customHeight="1">
+    <row r="3" spans="1:6" ht="23.5" customHeight="1">
       <c r="A3" s="38" t="s">
         <v>94</v>
       </c>
@@ -2197,28 +2215,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="0.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="0.83203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
     <col min="3" max="3" width="32.75" style="2" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="10.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.58203125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.75" style="2" customWidth="1"/>
     <col min="7" max="7" width="9.75" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" style="2" customWidth="1"/>
     <col min="9" max="9" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" style="2" customWidth="1"/>
     <col min="11" max="11" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="9" style="2"/>
-    <col min="14" max="14" width="16.875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="16.83203125" style="2" customWidth="1"/>
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -2248,7 +2266,7 @@
       <c r="M2" s="41"/>
       <c r="N2" s="42"/>
     </row>
-    <row r="3" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:14" ht="20.149999999999999" customHeight="1">
       <c r="B3" s="1" t="s">
         <v>88</v>
       </c>
@@ -2275,7 +2293,7 @@
       <c r="M3" s="43"/>
       <c r="N3" s="44"/>
     </row>
-    <row r="4" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:14" ht="20.149999999999999" customHeight="1">
       <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
@@ -2316,7 +2334,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="27">
+    <row r="5" spans="1:14" ht="28">
       <c r="B5" s="7">
         <v>1.3</v>
       </c>
@@ -2412,6 +2430,9 @@
       </c>
       <c r="F7" s="7" t="s">
         <v>105</v>
+      </c>
+      <c r="G7" s="45">
+        <v>42427</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>115</v>

--- a/文档/PersonalLibrary_项目问题跟踪表.xlsx
+++ b/文档/PersonalLibrary_项目问题跟踪表.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\寒假华迪实训\PersonalLibrary\PersonalLibrary-Server\文档\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="12800" windowHeight="8220" tabRatio="544" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="12795" windowHeight="8220" tabRatio="544" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="填表说明" sheetId="3" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="202">
   <si>
     <t>建立日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -407,10 +402,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>甘特图绘制过于简略，任务不完整。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>高</t>
   </si>
   <si>
@@ -446,10 +437,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2.1.3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>软件实现规约与用例模型不一致</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -466,15 +453,348 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>甘特图未生成WBS编号，无大纲级别。</t>
+    <t>中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>老师</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 软件测试用例不完善</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充测试用例</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐一飞</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁雨聪</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROSE分析模型理解错误</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>认真修改，整理分包</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘柏呈</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROSE设计模型逻辑混乱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>老师</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理思路与框架</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘柏呈</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁雨聪</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计模型分包有问题</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计阶段</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新分包</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计模型MVC框架不明显</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续深入学习MVC格式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object Messages 上的功能说明缺少编号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object Messages增加编号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例数量过少</t>
+  </si>
+  <si>
+    <t>不断有效的完善用例</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐一飞</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 没有区分集成与系统测试用例的概念</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>认真学习两者的相似和不同之处</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分主键外键设置错误</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>老师</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改主键外键</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>张秋雯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁雨聪</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺少管理员的数据表和角色权限表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过实际讨论，认为时间精力有局限难以增加此功能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计阶段</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>史雷思</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改路径</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李筱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘特图绘制过于简略，任务不完整</t>
+  </si>
+  <si>
+    <t>甘特图未生成WBS编号，无大纲级别</t>
+  </si>
+  <si>
+    <t>分析模型每个实体是抽象的，无需在末尾加java</t>
+  </si>
+  <si>
+    <t>删去实体名称后的java</t>
+  </si>
+  <si>
+    <t>配置状态表存放路径不一致</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求阶段</t>
+  </si>
+  <si>
+    <t>编码阶段</t>
+  </si>
+  <si>
+    <t>发表书评界面左右排布不美观</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>组员</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>组员</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加时间轴，美化界面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>git使用不顺利，集成开发时不能有效同步</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新安装相关插件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘柏呈</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁雨聪</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面列表中事件需要按时间排序</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入冒泡排序</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击拒绝好友借书请求后无响应</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台工作量比预期大，人力不足，在计划时间内不能完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定具体的工作量，以及工作计划，在什么情况下能够完成，我们好申请资源。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>史雷思</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>不断调试，修改相关代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HD20160220SWT01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HD20160220SWT02</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HD20160220SWT03</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HD20160220SWT04</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HD20160220SWT05</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HD20160220SWT06</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HD20160220SWT07</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HD20160220SWT08</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HD20160220SWT09</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HD20160220SWT010</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HD20160220SWT11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HD20160220SWT12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HD20160220SWT13</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HD20160220SWT14</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HD20160220SWT15</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HD20160220SWT16</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HD20160220SWT17</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HD20160220SWT18</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HD20160220SWT19</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HD20160220SWT20</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -581,6 +901,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -739,7 +1066,6 @@
     <xf numFmtId="14" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -797,6 +1123,8 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -824,9 +1152,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -836,7 +1161,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -845,14 +1172,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1221,7 +1540,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1253,10 +1572,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1288,7 +1606,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1464,434 +1781,434 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="21" customWidth="1"/>
-    <col min="2" max="2" width="27.08203125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="33.08203125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="15"/>
+    <col min="1" max="1" width="6.375" style="20" customWidth="1"/>
+    <col min="2" max="2" width="27.125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="33.125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="13" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A1" s="12"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:6" s="13" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" spans="1:6" s="13" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-    </row>
-    <row r="4" spans="1:6" ht="15">
-      <c r="A4" s="14" t="s">
+    <row r="1" spans="1:6" s="12" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:6" s="12" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:6" s="12" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="1:6" ht="14.25">
+      <c r="A4" s="13" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="16">
+      <c r="A5" s="15">
         <v>1</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="16">
+      <c r="A6" s="15">
         <v>2</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="16">
+      <c r="A7" s="15">
         <v>3</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="16">
+      <c r="A8" s="15">
         <v>4</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18" t="s">
+      <c r="A9" s="16"/>
+      <c r="B9" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="17" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="11">
+      <c r="D11" s="34"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="11">
+      <c r="D12" s="34"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="11">
+      <c r="D13" s="34"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="33"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="11">
+      <c r="D14" s="34"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="33"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="11">
+      <c r="D15" s="34"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="10">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="33"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="11">
+      <c r="D16" s="34"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="10">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="33"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="11">
+      <c r="D17" s="34"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="33"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="11">
+      <c r="D18" s="34"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="10">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="11">
+      <c r="D19" s="34"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="33"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="11">
+      <c r="D20" s="34"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="10">
         <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="33"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="11">
+      <c r="D21" s="34"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="10">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="33"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="11">
+      <c r="D22" s="34"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="10">
         <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="33"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="11">
+      <c r="D23" s="34"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="10">
         <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="11">
+      <c r="D24" s="34"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="10">
         <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="33"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="11">
+      <c r="D25" s="34"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="10">
         <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="33"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="11">
+      <c r="D26" s="34"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D27" s="33"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="11">
+      <c r="D27" s="34"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="10">
         <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="34"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="11">
+      <c r="D28" s="35"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="10">
         <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="16">
+      <c r="A30" s="15">
         <v>5</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="14" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="14" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B33" s="21"/>
+      <c r="B33" s="20"/>
     </row>
     <row r="34" spans="2:2" ht="12.75" customHeight="1"/>
     <row r="35" spans="2:2" ht="12.75" customHeight="1"/>
@@ -1909,299 +2226,299 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="6.25" style="31" customWidth="1"/>
-    <col min="2" max="2" width="17.58203125" style="31" customWidth="1"/>
-    <col min="3" max="3" width="10.25" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5" style="31" customWidth="1"/>
-    <col min="5" max="5" width="49.33203125" style="31" customWidth="1"/>
-    <col min="6" max="6" width="27.33203125" style="31" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="23"/>
+    <col min="1" max="1" width="6.25" style="30" customWidth="1"/>
+    <col min="2" max="2" width="17.625" style="30" customWidth="1"/>
+    <col min="3" max="3" width="10.25" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" style="30" customWidth="1"/>
+    <col min="5" max="5" width="49.375" style="30" customWidth="1"/>
+    <col min="6" max="6" width="27.375" style="30" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="13" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A1" s="12"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:6" s="13" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" spans="1:6" ht="23.5" customHeight="1">
-      <c r="A3" s="38" t="s">
+    <row r="1" spans="1:6" s="12" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:6" s="12" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:6" ht="23.45" customHeight="1">
+      <c r="A3" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-    </row>
-    <row r="4" spans="1:6" s="26" customFormat="1">
-      <c r="A4" s="24" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+    </row>
+    <row r="4" spans="1:6" s="25" customFormat="1">
+      <c r="A4" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="24" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="27"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="27"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="27"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="28"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="27"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="27"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="28"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="27"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="27"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="28"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="27"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="27"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="28"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="27"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="27"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="28"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="27"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="28"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="28"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="28"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="27"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="27"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="28"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="27"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="28"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="27"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="27"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="28"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="27"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="27"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="28"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="27"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="27"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="28"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="27"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="27"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="28"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="27"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="27"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="28"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="27"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="27"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="28"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="27"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="27"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="28"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="27"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="27"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="28"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="27"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="27"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="28"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="27"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="27"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="28"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="27"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="27"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="28"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="27"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="27"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="28"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="27"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="27"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="28"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="27"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="27"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="28"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="27"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="27"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="28"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="27"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="27"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="28"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="27"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="27"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="28"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2215,58 +2532,60 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="0.83203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="0.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
     <col min="3" max="3" width="32.75" style="2" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="10.58203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.75" style="2" customWidth="1"/>
     <col min="7" max="7" width="9.75" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.375" style="2" customWidth="1"/>
     <col min="9" max="9" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.33203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.375" style="2" customWidth="1"/>
     <col min="11" max="11" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="9" style="2"/>
-    <col min="14" max="14" width="16.83203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="16.875" style="2" customWidth="1"/>
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="25.5" customHeight="1">
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:14" ht="19.5" customHeight="1">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="41"/>
+      <c r="M2" s="45">
+        <v>42421</v>
+      </c>
       <c r="N2" s="42"/>
     </row>
-    <row r="3" spans="1:14" ht="20.149999999999999" customHeight="1">
+    <row r="3" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="1" t="s">
         <v>88</v>
       </c>
@@ -2282,18 +2601,24 @@
       <c r="H3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="6"/>
+      <c r="I3" s="6">
+        <v>20</v>
+      </c>
       <c r="J3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="6"/>
+      <c r="K3" s="6">
+        <v>20</v>
+      </c>
       <c r="L3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="43"/>
+      <c r="M3" s="43">
+        <v>20</v>
+      </c>
       <c r="N3" s="44"/>
     </row>
-    <row r="4" spans="1:14" ht="20.149999999999999" customHeight="1">
+    <row r="4" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
@@ -2334,42 +2659,42 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="28">
-      <c r="B5" s="7">
-        <v>1.3</v>
+    <row r="5" spans="1:14" ht="27">
+      <c r="B5" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="G5" s="9">
         <v>42422</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I5" s="9">
         <v>42422</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K5" s="9">
         <v>42424</v>
       </c>
       <c r="L5" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="N5" s="7"/>
     </row>
@@ -2377,340 +2702,743 @@
       <c r="A6" s="9">
         <v>42422</v>
       </c>
-      <c r="B6" s="7">
-        <v>1.3</v>
+      <c r="B6" s="7" t="s">
+        <v>183</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G6" s="9">
         <v>42424</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I6" s="9">
-        <v>42425</v>
+        <v>42424</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K6" s="9">
         <v>42425</v>
       </c>
       <c r="L6" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="N6" s="7"/>
     </row>
     <row r="7" spans="1:14" ht="33" customHeight="1">
       <c r="B7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="31">
+        <v>42425</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="I7" s="9">
+        <v>42425</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G7" s="45">
-        <v>42427</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="I7" s="9">
-        <v>42423</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="K7" s="9">
         <v>42423</v>
       </c>
       <c r="L7" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N7" s="7"/>
+    </row>
+    <row r="8" spans="1:14" ht="28.5" customHeight="1">
+      <c r="B8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="G8" s="9">
+        <v>42429</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I8" s="9">
+        <v>42429</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K8" s="9">
+        <v>42429</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="N8" s="7"/>
+    </row>
+    <row r="9" spans="1:14" ht="29.25" customHeight="1">
+      <c r="B9" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G9" s="9">
+        <v>42429</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I9" s="9">
+        <v>42429</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K9" s="9">
+        <v>42429</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="N9" s="7"/>
+    </row>
+    <row r="10" spans="1:14" ht="30.75" customHeight="1">
+      <c r="B10" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="N7" s="7"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="7"/>
-    </row>
-    <row r="9" spans="1:14" ht="19.5" customHeight="1">
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="7"/>
-    </row>
-    <row r="10" spans="1:14" ht="19.5" customHeight="1">
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="1"/>
+      <c r="E10" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G10" s="9">
+        <v>42429</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="I10" s="9">
+        <v>42429</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K10" s="9">
+        <v>42429</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="N10" s="7"/>
     </row>
-    <row r="11" spans="1:14" ht="19.5" customHeight="1">
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="1"/>
+    <row r="11" spans="1:14" ht="32.25" customHeight="1">
+      <c r="B11" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" s="9">
+        <v>42430</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="I11" s="9">
+        <v>42430</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K11" s="9">
+        <v>42430</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="N11" s="7"/>
     </row>
-    <row r="12" spans="1:14" ht="19.5" customHeight="1">
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="1"/>
+    <row r="12" spans="1:14" ht="30.75" customHeight="1">
+      <c r="B12" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" s="9">
+        <v>42430</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="I12" s="9">
+        <v>42430</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K12" s="9">
+        <v>42430</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="N12" s="7"/>
     </row>
-    <row r="13" spans="1:14" ht="19.5" customHeight="1">
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="1"/>
+    <row r="13" spans="1:14" ht="31.5" customHeight="1">
+      <c r="B13" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" s="9">
+        <v>42431</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="I13" s="9">
+        <v>42431</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K13" s="9">
+        <v>42431</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="N13" s="7"/>
     </row>
-    <row r="14" spans="1:14" ht="19.5" customHeight="1">
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="1"/>
+    <row r="14" spans="1:14" ht="31.5" customHeight="1">
+      <c r="B14" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" s="9">
+        <v>42431</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="I14" s="9">
+        <v>42431</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K14" s="9">
+        <v>42431</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="N14" s="7"/>
     </row>
-    <row r="15" spans="1:14" ht="19.5" customHeight="1">
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="1"/>
+    <row r="15" spans="1:14" ht="32.25" customHeight="1">
+      <c r="B15" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" s="9">
+        <v>42432</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="I15" s="9">
+        <v>42432</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K15" s="9">
+        <v>42432</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="N15" s="7"/>
     </row>
-    <row r="16" spans="1:14" ht="19.5" customHeight="1">
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="1"/>
+    <row r="16" spans="1:14" ht="32.25" customHeight="1">
+      <c r="B16" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G16" s="9">
+        <v>42432</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="I16" s="9">
+        <v>42432</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K16" s="9">
+        <v>42432</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="N16" s="7"/>
     </row>
-    <row r="17" spans="2:14" ht="19.5" customHeight="1">
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="1"/>
+    <row r="17" spans="2:14" ht="36.75" customHeight="1">
+      <c r="B17" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G17" s="9">
+        <v>42433</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I17" s="9">
+        <v>42433</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K17" s="9">
+        <v>42433</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="N17" s="7"/>
     </row>
-    <row r="18" spans="2:14" ht="19.5" customHeight="1">
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="1"/>
+    <row r="18" spans="2:14" ht="34.5" customHeight="1">
+      <c r="B18" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G18" s="9">
+        <v>42433</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I18" s="9">
+        <v>42433</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K18" s="9">
+        <v>42433</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="N18" s="7"/>
     </row>
-    <row r="19" spans="2:14" ht="19.5" customHeight="1">
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="1"/>
+    <row r="19" spans="2:14" ht="40.5" customHeight="1">
+      <c r="B19" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G19" s="9">
+        <v>42433</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="I19" s="9">
+        <v>42433</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K19" s="9">
+        <v>42433</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="N19" s="7"/>
     </row>
     <row r="20" spans="2:14" ht="19.5" customHeight="1">
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="1"/>
+      <c r="B20" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G20" s="9">
+        <v>42434</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="I20" s="9">
+        <v>42434</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K20" s="9">
+        <v>42434</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="N20" s="7"/>
     </row>
-    <row r="21" spans="2:14" ht="19.5" customHeight="1">
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="1"/>
+    <row r="21" spans="2:14" ht="41.25" customHeight="1">
+      <c r="B21" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G21" s="9">
+        <v>42435</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="I21" s="9">
+        <v>42435</v>
+      </c>
+      <c r="J21" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="K21" s="9">
+        <v>42435</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="N21" s="7"/>
     </row>
-    <row r="22" spans="2:14" ht="19.5" customHeight="1">
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="1"/>
+    <row r="22" spans="2:14" ht="31.5" customHeight="1">
+      <c r="B22" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G22" s="9">
+        <v>42436</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="I22" s="9">
+        <v>42436</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K22" s="9">
+        <v>42436</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="N22" s="7"/>
     </row>
-    <row r="23" spans="2:14" ht="19.5" customHeight="1">
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="1"/>
+    <row r="23" spans="2:14" ht="36" customHeight="1">
+      <c r="B23" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G23" s="9">
+        <v>42437</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="I23" s="9">
+        <v>42437</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K23" s="9">
+        <v>42437</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="N23" s="7"/>
     </row>
-    <row r="24" spans="2:14" ht="19.5" customHeight="1">
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
+    <row r="24" spans="2:14" ht="30" customHeight="1">
+      <c r="B24" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>178</v>
+      </c>
       <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="1"/>
+      <c r="E24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G24" s="9">
+        <v>42438</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="I24" s="9">
+        <v>42438</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K24" s="9">
+        <v>42438</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="N24" s="7"/>
-    </row>
-    <row r="25" spans="2:14">
-      <c r="C25" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
